--- a/resources/data/WIDeer.xlsx
+++ b/resources/data/WIDeer.xlsx
@@ -26,9 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>Country</t>
-  </si>
-  <si>
     <t>Ashland</t>
   </si>
   <si>
@@ -42,6 +39,9 @@
   </si>
   <si>
     <t>Sawyer</t>
+  </si>
+  <si>
+    <t>County</t>
   </si>
 </sst>
 </file>
@@ -380,14 +380,14 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1">
         <v>2011</v>
@@ -422,7 +422,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2">
         <v>1371</v>
@@ -457,7 +457,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2">
         <v>2722</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2">
         <v>2738</v>
@@ -527,7 +527,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>748</v>
@@ -562,7 +562,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2">
         <v>2104</v>
